--- a/Code/Resultados_Analisis/Ciudades/Salt_Lake_UT/Salt_Lake_UT_datos_procesados.xlsx
+++ b/Code/Resultados_Analisis/Ciudades/Salt_Lake_UT/Salt_Lake_UT_datos_procesados.xlsx
@@ -848,7 +848,7 @@
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AV2" t="n">
@@ -862,12 +862,12 @@
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="BB3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="BB4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AV6" t="n">
@@ -1558,12 +1558,12 @@
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1732,12 +1732,12 @@
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="BB7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV8" t="n">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="BB8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2080,12 +2080,12 @@
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
@@ -2094,7 +2094,7 @@
         </is>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="BB11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AV12" t="n">
@@ -2602,12 +2602,12 @@
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
@@ -2790,7 +2790,7 @@
         </is>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV14" t="n">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="AZ15" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
       <c r="BA15" t="inlineStr">
@@ -3138,7 +3138,7 @@
         </is>
       </c>
       <c r="BB15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -3298,12 +3298,12 @@
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ16" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="BA16" t="inlineStr">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="BB16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
@@ -3486,7 +3486,7 @@
         </is>
       </c>
       <c r="BB17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV18" t="n">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="BB18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="AZ19" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
       <c r="BA19" t="inlineStr">
@@ -3834,7 +3834,7 @@
         </is>
       </c>
       <c r="BB19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -3994,12 +3994,12 @@
       </c>
       <c r="AY20" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ20" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="BA20" t="inlineStr">
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="BB20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -4173,7 +4173,7 @@
       </c>
       <c r="AZ21" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA21" t="inlineStr">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="BB21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="AZ22" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA22" t="inlineStr">
@@ -4356,7 +4356,7 @@
         </is>
       </c>
       <c r="BB22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="AZ23" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA23" t="inlineStr">
@@ -4530,7 +4530,7 @@
         </is>
       </c>
       <c r="BB23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="AZ24" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
       <c r="BA24" t="inlineStr">
@@ -4704,7 +4704,7 @@
         </is>
       </c>
       <c r="BB24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="AZ25" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
       <c r="BA25" t="inlineStr">
@@ -4878,7 +4878,7 @@
         </is>
       </c>
       <c r="BB25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="AU26" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AV26" t="n">
@@ -5038,12 +5038,12 @@
       </c>
       <c r="AY26" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ26" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="BA26" t="inlineStr">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV27" t="n">
@@ -5212,12 +5212,12 @@
       </c>
       <c r="AY27" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ27" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="BA27" t="inlineStr">
@@ -5226,7 +5226,7 @@
         </is>
       </c>
       <c r="BB27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV28" t="n">
@@ -5386,12 +5386,12 @@
       </c>
       <c r="AY28" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ28" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="BA28" t="inlineStr">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="BB28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -5565,7 +5565,7 @@
       </c>
       <c r="AZ29" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA29" t="inlineStr">
@@ -5574,7 +5574,7 @@
         </is>
       </c>
       <c r="BB29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -5739,7 +5739,7 @@
       </c>
       <c r="AZ30" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA30" t="inlineStr">
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="BB30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -5913,7 +5913,7 @@
       </c>
       <c r="AZ31" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA31" t="inlineStr">
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="BB31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="AZ32" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA32" t="inlineStr">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="BB32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="AZ33" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA33" t="inlineStr">
@@ -6270,7 +6270,7 @@
         </is>
       </c>
       <c r="BB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -6435,7 +6435,7 @@
       </c>
       <c r="AZ34" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA34" t="inlineStr">
@@ -6444,7 +6444,7 @@
         </is>
       </c>
       <c r="BB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -6609,7 +6609,7 @@
       </c>
       <c r="AZ35" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA35" t="inlineStr">
@@ -6618,7 +6618,7 @@
         </is>
       </c>
       <c r="BB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="AZ36" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA36" t="inlineStr">
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="BB36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="AZ37" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
       <c r="BA37" t="inlineStr">
@@ -6966,7 +6966,7 @@
         </is>
       </c>
       <c r="BB37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="AZ38" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
       <c r="BA38" t="inlineStr">
@@ -7140,7 +7140,7 @@
         </is>
       </c>
       <c r="BB38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="AU39" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV39" t="n">
@@ -7300,12 +7300,12 @@
       </c>
       <c r="AY39" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ39" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="BA39" t="inlineStr">
@@ -7314,7 +7314,7 @@
         </is>
       </c>
       <c r="BB39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -7474,12 +7474,12 @@
       </c>
       <c r="AY40" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ40" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="BA40" t="inlineStr">
@@ -7488,7 +7488,7 @@
         </is>
       </c>
       <c r="BB40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -7648,12 +7648,12 @@
       </c>
       <c r="AY41" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ41" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="BA41" t="inlineStr">
@@ -7662,7 +7662,7 @@
         </is>
       </c>
       <c r="BB41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -7827,7 +7827,7 @@
       </c>
       <c r="AZ42" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
       <c r="BA42" t="inlineStr">
@@ -7836,7 +7836,7 @@
         </is>
       </c>
       <c r="BB42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -8001,7 +8001,7 @@
       </c>
       <c r="AZ43" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA43" t="inlineStr">
@@ -8010,7 +8010,7 @@
         </is>
       </c>
       <c r="BB43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="AZ44" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA44" t="inlineStr">
@@ -8184,7 +8184,7 @@
         </is>
       </c>
       <c r="BB44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -8349,7 +8349,7 @@
       </c>
       <c r="AZ45" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA45" t="inlineStr">
@@ -8358,7 +8358,7 @@
         </is>
       </c>
       <c r="BB45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -8523,7 +8523,7 @@
       </c>
       <c r="AZ46" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA46" t="inlineStr">
@@ -8532,7 +8532,7 @@
         </is>
       </c>
       <c r="BB46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -8692,12 +8692,12 @@
       </c>
       <c r="AY47" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ47" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="BA47" t="inlineStr">
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="BB47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -8866,12 +8866,12 @@
       </c>
       <c r="AY48" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ48" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="BA48" t="inlineStr">
@@ -8880,7 +8880,7 @@
         </is>
       </c>
       <c r="BB48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="AZ49" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
       <c r="BA49" t="inlineStr">
@@ -9054,7 +9054,7 @@
         </is>
       </c>
       <c r="BB49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="AU50" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AV50" t="n">
@@ -9214,12 +9214,12 @@
       </c>
       <c r="AY50" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ50" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="BA50" t="inlineStr">
@@ -9228,7 +9228,7 @@
         </is>
       </c>
       <c r="BB50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -9388,12 +9388,12 @@
       </c>
       <c r="AY51" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ51" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="BA51" t="inlineStr">
@@ -9402,7 +9402,7 @@
         </is>
       </c>
       <c r="BB51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -9567,7 +9567,7 @@
       </c>
       <c r="AZ52" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA52" t="inlineStr">
@@ -9576,7 +9576,7 @@
         </is>
       </c>
       <c r="BB52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -9741,7 +9741,7 @@
       </c>
       <c r="AZ53" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA53" t="inlineStr">
@@ -9750,7 +9750,7 @@
         </is>
       </c>
       <c r="BB53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -9915,7 +9915,7 @@
       </c>
       <c r="AZ54" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA54" t="inlineStr">
@@ -9924,7 +9924,7 @@
         </is>
       </c>
       <c r="BB54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -10089,7 +10089,7 @@
       </c>
       <c r="AZ55" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA55" t="inlineStr">
@@ -10098,7 +10098,7 @@
         </is>
       </c>
       <c r="BB55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -10263,7 +10263,7 @@
       </c>
       <c r="AZ56" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
       <c r="BA56" t="inlineStr">
@@ -10272,7 +10272,7 @@
         </is>
       </c>
       <c r="BB56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -10418,7 +10418,7 @@
       </c>
       <c r="AU57" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV57" t="n">
@@ -10432,12 +10432,12 @@
       </c>
       <c r="AY57" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ57" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="BA57" t="inlineStr">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="BB57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -10592,7 +10592,7 @@
       </c>
       <c r="AU58" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AV58" t="n">
@@ -10606,12 +10606,12 @@
       </c>
       <c r="AY58" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ58" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="BA58" t="inlineStr">
@@ -10620,7 +10620,7 @@
         </is>
       </c>
       <c r="BB58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -10785,7 +10785,7 @@
       </c>
       <c r="AZ59" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
       <c r="BA59" t="inlineStr">
@@ -10794,7 +10794,7 @@
         </is>
       </c>
       <c r="BB59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -10954,12 +10954,12 @@
       </c>
       <c r="AY60" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ60" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="BA60" t="inlineStr">
@@ -10968,7 +10968,7 @@
         </is>
       </c>
       <c r="BB60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -11128,12 +11128,12 @@
       </c>
       <c r="AY61" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ61" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="BA61" t="inlineStr">
@@ -11142,7 +11142,7 @@
         </is>
       </c>
       <c r="BB61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -11307,7 +11307,7 @@
       </c>
       <c r="AZ62" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA62" t="inlineStr">
@@ -11316,7 +11316,7 @@
         </is>
       </c>
       <c r="BB62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -11481,7 +11481,7 @@
       </c>
       <c r="AZ63" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA63" t="inlineStr">
@@ -11490,7 +11490,7 @@
         </is>
       </c>
       <c r="BB63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -11636,7 +11636,7 @@
       </c>
       <c r="AU64" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV64" t="n">
@@ -11655,7 +11655,7 @@
       </c>
       <c r="AZ64" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
       <c r="BA64" t="inlineStr">
@@ -11829,7 +11829,7 @@
       </c>
       <c r="AZ65" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA65" t="inlineStr">
@@ -11838,7 +11838,7 @@
         </is>
       </c>
       <c r="BB65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -12003,7 +12003,7 @@
       </c>
       <c r="AZ66" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA66" t="inlineStr">
@@ -12012,7 +12012,7 @@
         </is>
       </c>
       <c r="BB66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -12158,7 +12158,7 @@
       </c>
       <c r="AU67" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV67" t="n">
@@ -12172,12 +12172,12 @@
       </c>
       <c r="AY67" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ67" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="BA67" t="inlineStr">
@@ -12186,7 +12186,7 @@
         </is>
       </c>
       <c r="BB67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -12332,7 +12332,7 @@
       </c>
       <c r="AU68" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV68" t="n">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="AZ68" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
       <c r="BA68" t="inlineStr">
@@ -12525,7 +12525,7 @@
       </c>
       <c r="AZ69" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
       <c r="BA69" t="inlineStr">
@@ -12534,7 +12534,7 @@
         </is>
       </c>
       <c r="BB69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -12680,7 +12680,7 @@
       </c>
       <c r="AU70" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV70" t="n">
@@ -12699,7 +12699,7 @@
       </c>
       <c r="AZ70" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
       <c r="BA70" t="inlineStr">
@@ -12708,7 +12708,7 @@
         </is>
       </c>
       <c r="BB70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -12868,12 +12868,12 @@
       </c>
       <c r="AY71" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ71" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="BA71" t="inlineStr">
@@ -12882,7 +12882,7 @@
         </is>
       </c>
       <c r="BB71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -13047,7 +13047,7 @@
       </c>
       <c r="AZ72" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA72" t="inlineStr">
@@ -13056,7 +13056,7 @@
         </is>
       </c>
       <c r="BB72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -13221,7 +13221,7 @@
       </c>
       <c r="AZ73" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="BA73" t="inlineStr">
@@ -13230,7 +13230,7 @@
         </is>
       </c>
       <c r="BB73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Resultados_Analisis/Ciudades/Salt_Lake_UT/Salt_Lake_UT_datos_procesados.xlsx
+++ b/Code/Resultados_Analisis/Ciudades/Salt_Lake_UT/Salt_Lake_UT_datos_procesados.xlsx
@@ -862,12 +862,12 @@
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
@@ -1558,12 +1558,12 @@
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV7" t="n">
@@ -1732,12 +1732,12 @@
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="BB7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2080,12 +2080,12 @@
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV12" t="n">
@@ -2602,12 +2602,12 @@
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="BB12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3298,12 +3298,12 @@
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ16" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA16" t="inlineStr">
@@ -3994,12 +3994,12 @@
       </c>
       <c r="AY20" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ20" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA20" t="inlineStr">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="AU25" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AV25" t="n">
@@ -4878,7 +4878,7 @@
         </is>
       </c>
       <c r="BB25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -5038,12 +5038,12 @@
       </c>
       <c r="AY26" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ26" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA26" t="inlineStr">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV27" t="n">
@@ -5212,12 +5212,12 @@
       </c>
       <c r="AY27" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ27" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA27" t="inlineStr">
@@ -5226,7 +5226,7 @@
         </is>
       </c>
       <c r="BB27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -5386,12 +5386,12 @@
       </c>
       <c r="AY28" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ28" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA28" t="inlineStr">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="AU30" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV30" t="n">
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="BB30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -5894,7 +5894,7 @@
       </c>
       <c r="AU31" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV31" t="n">
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="BB31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="AU39" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AV39" t="n">
@@ -7300,12 +7300,12 @@
       </c>
       <c r="AY39" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ39" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA39" t="inlineStr">
@@ -7314,7 +7314,7 @@
         </is>
       </c>
       <c r="BB39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -7474,12 +7474,12 @@
       </c>
       <c r="AY40" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ40" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA40" t="inlineStr">
@@ -7648,12 +7648,12 @@
       </c>
       <c r="AY41" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ41" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA41" t="inlineStr">
@@ -8692,12 +8692,12 @@
       </c>
       <c r="AY47" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ47" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA47" t="inlineStr">
@@ -8866,12 +8866,12 @@
       </c>
       <c r="AY48" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ48" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA48" t="inlineStr">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="AU50" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV50" t="n">
@@ -9214,12 +9214,12 @@
       </c>
       <c r="AY50" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ50" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA50" t="inlineStr">
@@ -9228,7 +9228,7 @@
         </is>
       </c>
       <c r="BB50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -9374,7 +9374,7 @@
       </c>
       <c r="AU51" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV51" t="n">
@@ -9388,12 +9388,12 @@
       </c>
       <c r="AY51" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ51" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA51" t="inlineStr">
@@ -9402,7 +9402,7 @@
         </is>
       </c>
       <c r="BB51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -9896,7 +9896,7 @@
       </c>
       <c r="AU54" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV54" t="n">
@@ -9924,7 +9924,7 @@
         </is>
       </c>
       <c r="BB54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -10432,12 +10432,12 @@
       </c>
       <c r="AY57" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ57" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA57" t="inlineStr">
@@ -10592,7 +10592,7 @@
       </c>
       <c r="AU58" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV58" t="n">
@@ -10606,12 +10606,12 @@
       </c>
       <c r="AY58" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ58" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA58" t="inlineStr">
@@ -10620,7 +10620,7 @@
         </is>
       </c>
       <c r="BB58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -10954,12 +10954,12 @@
       </c>
       <c r="AY60" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ60" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA60" t="inlineStr">
@@ -11114,7 +11114,7 @@
       </c>
       <c r="AU61" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV61" t="n">
@@ -11128,12 +11128,12 @@
       </c>
       <c r="AY61" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ61" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA61" t="inlineStr">
@@ -11142,7 +11142,7 @@
         </is>
       </c>
       <c r="BB61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -11984,7 +11984,7 @@
       </c>
       <c r="AU66" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV66" t="n">
@@ -12012,7 +12012,7 @@
         </is>
       </c>
       <c r="BB66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -12172,12 +12172,12 @@
       </c>
       <c r="AY67" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ67" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA67" t="inlineStr">
@@ -12332,7 +12332,7 @@
       </c>
       <c r="AU68" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AV68" t="n">
@@ -12360,7 +12360,7 @@
         </is>
       </c>
       <c r="BB68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -12506,7 +12506,7 @@
       </c>
       <c r="AU69" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AV69" t="n">
@@ -12534,7 +12534,7 @@
         </is>
       </c>
       <c r="BB69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -12868,12 +12868,12 @@
       </c>
       <c r="AY71" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ71" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA71" t="inlineStr">

--- a/Code/Resultados_Analisis/Ciudades/Salt_Lake_UT/Salt_Lake_UT_datos_procesados.xlsx
+++ b/Code/Resultados_Analisis/Ciudades/Salt_Lake_UT/Salt_Lake_UT_datos_procesados.xlsx
@@ -1718,7 +1718,7 @@
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AV7" t="n">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="BB7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="AU25" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV25" t="n">
@@ -4878,7 +4878,7 @@
         </is>
       </c>
       <c r="BB25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="AU26" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV26" t="n">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="BB26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AV28" t="n">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="BB28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="AU39" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV39" t="n">
@@ -7314,7 +7314,7 @@
         </is>
       </c>
       <c r="BB39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -9896,7 +9896,7 @@
       </c>
       <c r="AU54" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AV54" t="n">
@@ -9924,7 +9924,7 @@
         </is>
       </c>
       <c r="BB54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -12158,7 +12158,7 @@
       </c>
       <c r="AU67" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AV67" t="n">
@@ -12186,7 +12186,7 @@
         </is>
       </c>
       <c r="BB67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -12332,7 +12332,7 @@
       </c>
       <c r="AU68" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="AV68" t="n">
@@ -12360,7 +12360,7 @@
         </is>
       </c>
       <c r="BB68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -12506,7 +12506,7 @@
       </c>
       <c r="AU69" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV69" t="n">
@@ -12534,7 +12534,7 @@
         </is>
       </c>
       <c r="BB69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
